--- a/chat_data.xlsx
+++ b/chat_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cebb97fb30c35e3a/Desktop/ECE Chatbot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{06E21AE3-0FBD-451B-81D7-6AFD5EB0895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F38822E0-49F5-4F6C-BC26-D61C846C2BBC}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{010D68DE-4F6D-46FA-80C3-8F44FC4A5238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB69DF9C-5627-4ECE-8EF4-298033CC74F0}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="16530" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="3720" windowWidth="16395" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Question</t>
   </si>
@@ -51,7 +51,49 @@
     <t>Labs: VLSI, DSP, Embedded Systems, Microprocessor, and Communication.</t>
   </si>
   <si>
-    <t>Dr. R.Poornachandran is the Head of the ECE Department.</t>
+    <t>Who is the topper of ECE departmant?</t>
+  </si>
+  <si>
+    <t>Jeeva. S, is the on and only topper of ECE department.</t>
+  </si>
+  <si>
+    <t>ece topper, ECE topper, dept topper, ECE Topper, topper of ece, ECE Dept topper</t>
+  </si>
+  <si>
+    <t>Dr. R.Poornachandran and Dr.P.Anandh Kumar are the Head of the ECE Department.</t>
+  </si>
+  <si>
+    <t>Core Subjects: Circuit Analysis(CA), Electrical Devices and Circuits(EDC), Linear Integrated and Circuits(LIC), Digital Signal Processing(DSP), Signals and System(SS), Communication and System(CS), Digital System and Design(DSD), Electro Magnetic Field and Transmission Lines(EMF), Principle of VLSI Design, Wireless Communication(WC), Microprocessors and Microcontrollers(MPMC), Optical Communication and Networks(OCN), Satellite and Communication(SC), Network and Security(NS), Image Processing(IP).</t>
+  </si>
+  <si>
+    <t>Core papers, core subjects, ece main papers, ECE core papers,ECE Department paper, core papers of ece, ece core papers</t>
+  </si>
+  <si>
+    <t>What is the College name?</t>
+  </si>
+  <si>
+    <t>college name, COLLEGE NAME, Name of the college, name college, College name</t>
+  </si>
+  <si>
+    <t>V.S.B. Engineering College, Karur.</t>
+  </si>
+  <si>
+    <t>What is the College location?</t>
+  </si>
+  <si>
+    <t>college location, College location, COLLEGE LOCATION,  College Location, Where is the college, where is the college, where is college, location of college</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karudayampalayam PO, Coimbathore Road, Karur-639111. </t>
+  </si>
+  <si>
+    <t>Who is III year ECE B Adviser?</t>
+  </si>
+  <si>
+    <t>ece b adviser name, adviser name, III ece b adviser,adviser name, your adviser name</t>
+  </si>
+  <si>
+    <t>Mr.MageshKumar</t>
   </si>
 </sst>
 </file>
@@ -95,13 +137,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -118,6 +172,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,17 +441,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="108" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -407,7 +465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -415,10 +473,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -428,6 +486,201 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/chat_data.xlsx
+++ b/chat_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cebb97fb30c35e3a/Desktop/ECE Chatbot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{010D68DE-4F6D-46FA-80C3-8F44FC4A5238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB69DF9C-5627-4ECE-8EF4-298033CC74F0}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="13_ncr:1_{010D68DE-4F6D-46FA-80C3-8F44FC4A5238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DC54A65-DA08-405D-8490-BF41EE15E4D7}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="16395" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="131">
   <si>
     <t>Question</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Who is the HOD of ECE?</t>
   </si>
   <si>
-    <t>ECE hod name, Head of ECE, HOD of Electronics</t>
-  </si>
-  <si>
     <t>What labs are available in ECE?</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>Who is the topper of ECE departmant?</t>
   </si>
   <si>
-    <t>Jeeva. S, is the on and only topper of ECE department.</t>
-  </si>
-  <si>
     <t>ece topper, ECE topper, dept topper, ECE Topper, topper of ece, ECE Dept topper</t>
   </si>
   <si>
@@ -94,13 +88,343 @@
   </si>
   <si>
     <t>Mr.MageshKumar</t>
+  </si>
+  <si>
+    <t>VSB Enginnering college principal,VSB college principal,vsb enginnering college principal,vsb college principal,vsbec principal,VSBEC principal</t>
+  </si>
+  <si>
+    <t>Who is the principal?</t>
+  </si>
+  <si>
+    <t>Who is the exam cell incharge?</t>
+  </si>
+  <si>
+    <t>examination coordinator,exam center head,before 2024 ece department senior hod,exam cell incharge,exam cell coordinator,exam cell hed,exam organizer</t>
+  </si>
+  <si>
+    <t>Who is the event coordinator?</t>
+  </si>
+  <si>
+    <t>Dr.R.Poornachandran M.E., Ph.D(hod)</t>
+  </si>
+  <si>
+    <t>Event coordinate,ECE department hod,ece department hod,ECE dept hod,ece dept hod,first and second year hod,first year and second year hod,1 and 2 year hod,1st and 2nd year hod,cultural coordinator,hostelday event coordinator,cultural event coordinator,hostelday coordinator,hostel day coordinator,boys hostelday coordinator,boys hostel day coordinator,girls hostelday coordinator,girls hostel day coordinator,hostelday event coordinator,hostel day event coordinator,boys hostelday event coordinator,boys hostel event day coordinator,girls hostelday event coordinator,girls hostel day event coordinator,overall event coordinator</t>
+  </si>
+  <si>
+    <t>Who all are ece department staff?</t>
+  </si>
+  <si>
+    <t>Dr.R.Poornachandran M.E., Ph.D(hod)  ,P Anandhakumar M.E.,(hod)  ,Dr R Rameshbabu M.E., Ph.D(Assistant Professor)  , K Kalaichelvi M.E.(Assistant Professor),  G Mohanavel M.E.(Assistant Professor),  P Gomathi M.E., (A hod) ,  R Lakshmi M.E.(Assistant Professor),  S Rajesh Kumar M.E.(Assistant Professor),  M Parvathi M.E.(Assistant Professor),  A AayishBegam M.E.(Assistant Professor),Dr S Vigneshwaran M.E.,Ph.D (Assistant Professor),  K Mageshkumar M.E.(Assistant Professor),  R Ashok Kumar M.E.(Assistant Professor),  V Elumalai M.E.(Assistant Professor),   K Mohamed Younus M.E.(Assistant Professor),  B Arthi M.E.(Assistant Professor), K Uthradevi M.E.(Assistant Professor),  V Jamuna M.E.(Assistant Professor),</t>
+  </si>
+  <si>
+    <t>ece department faculity,ECE department faculity,ECE department staff,ece dept staff,ECE dept staff,ECE dept faculity,ece dept faculity,ECE department professor,ece department professor,ECE dept professor,ece dept professor,</t>
+  </si>
+  <si>
+    <t>What are the subjects in first semester?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programming in C,  Professional english-1,  Matrics And Calculus, Engineering Physics, Engineering Chemistry,  Heritage Of Tamil  </t>
+  </si>
+  <si>
+    <t>1 sem subject,1st sem subject,first sem subject,</t>
+  </si>
+  <si>
+    <t>Who is Dr. C. Vennila?</t>
+  </si>
+  <si>
+    <t>.dr. c. vennila, professor in ece, specialization of c.</t>
+  </si>
+  <si>
+    <t>Dr. C. Vennila is a Professor in the Department of ECE, specializing in IoT, AI, VLSI &amp; Cognitive Radio</t>
+  </si>
+  <si>
+    <t>dr. r. rameshbabu, associate professor in ece, specialization of r.</t>
+  </si>
+  <si>
+    <t>k. kalaichelvi, assistant professor in ece, specialization of kalaichelvi</t>
+  </si>
+  <si>
+    <t>dr. r. raghupathy, assistant professor in ece, specialization of r.</t>
+  </si>
+  <si>
+    <t>mohanavel g, assistant professor in ece, specialization of g</t>
+  </si>
+  <si>
+    <t>p. nandhini, assistant professor in ece, specialization of nandhini</t>
+  </si>
+  <si>
+    <t>p. gomathi, assistant professor in ece, specialization of gomathi</t>
+  </si>
+  <si>
+    <t>lakshmi r, assistant professor in ece, specialization of r</t>
+  </si>
+  <si>
+    <t>rajesh kumar s, assistant professor in ece, specialization of kumar</t>
+  </si>
+  <si>
+    <t>m. parvathi, assistant professor in ece, specialization of parvathi</t>
+  </si>
+  <si>
+    <t>m. dinesh, assistant professor in ece, specialization of dinesh</t>
+  </si>
+  <si>
+    <t>a. aayisha begam, assistant professor in ece, specialization of aayisha</t>
+  </si>
+  <si>
+    <t>dr. s. vigneshwaran, assistant professor in ece, specialization of s.</t>
+  </si>
+  <si>
+    <t>dr. p. surendar, assistant professor in ece, specialization of p.</t>
+  </si>
+  <si>
+    <t>maheshkumar k, assistant professor in ece, specialization of k</t>
+  </si>
+  <si>
+    <t>ramprakash a, assistant professor in ece, specialization of a</t>
+  </si>
+  <si>
+    <t>ashok kumar r, assistant professor in ece, specialization of kumar</t>
+  </si>
+  <si>
+    <t>mohanapraksh k, assistant professor in ece, specialization of k</t>
+  </si>
+  <si>
+    <t>elumalai v, assistant professor in ece, specialization of v</t>
+  </si>
+  <si>
+    <t>mohamed younus k, assistant professor in ece, specialization of younus</t>
+  </si>
+  <si>
+    <t>arthi b, assistant professor in ece, specialization of b</t>
+  </si>
+  <si>
+    <t>bhuvaneshwari c, assistant professor in ece, specialization of c</t>
+  </si>
+  <si>
+    <t>uthradevi k, assistant professor in ece, specialization of k</t>
+  </si>
+  <si>
+    <t>dr. anumol mathai, assistant professor in ece, specialization of anumol</t>
+  </si>
+  <si>
+    <t>jamuna v, assistant professor in ece, specialization of v</t>
+  </si>
+  <si>
+    <t>Dr. R. Rameshbabu is a Associate Professor in the Department of ECE, specializing in Nonlinear Systems, Cryptography, Image Processing.</t>
+  </si>
+  <si>
+    <t>K. Kalaichelvi is a Assistant Professor in the Department of ECE, specializing in VLSI.</t>
+  </si>
+  <si>
+    <t>Dr. R. Raghupathy is a Assistant Professor in the Department of ECE, specializing in Medical Image Processing, Wireless Sensor Networks.</t>
+  </si>
+  <si>
+    <t>Mohanavel G is a Assistant Professor in the Department of ECE, specializing in Digital Circuits.</t>
+  </si>
+  <si>
+    <t>P. Nandhini is a Assistant Professor in the Department of ECE, specializing in Wireless Networks, Digital Image Processing.</t>
+  </si>
+  <si>
+    <t>P. Gomathi is a Assistant Professor in the Department of ECE, specializing in Microprocessor &amp; Microcontroller, Image Processing.</t>
+  </si>
+  <si>
+    <t>Lakshmi R is a Assistant Professor in the Department of ECE, specializing in Digital Electronics.</t>
+  </si>
+  <si>
+    <t>Rajesh Kumar S is a Assistant Professor in the Department of ECE, specializing in Antenna &amp; Wave Propagation, Network Security.</t>
+  </si>
+  <si>
+    <t>M. Parvathi is a Assistant Professor in the Department of ECE, specializing in Image Processing.</t>
+  </si>
+  <si>
+    <t>M. Dinesh is a Assistant Professor in the Department of ECE, specializing in Wireless Communication, 5G Networks, IoT.</t>
+  </si>
+  <si>
+    <t>A. Aayisha Begam is a Assistant Professor in the Department of ECE, specializing in Microprocessor &amp; Microcontroller, Digital Electronics.</t>
+  </si>
+  <si>
+    <t>Dr. S. Vigneshwaran is a Assistant Professor in the Department of ECE, specializing in Medical Image Processing.</t>
+  </si>
+  <si>
+    <t>Dr. P. Surendar is a Assistant Professor in the Department of ECE, specializing in Digital Electronics, Image Processing.</t>
+  </si>
+  <si>
+    <t>Maheshkumar K is a Assistant Professor in the Department of ECE, specializing in Embedded Systems.</t>
+  </si>
+  <si>
+    <t>Ramprakash A is a Assistant Professor in the Department of ECE, specializing in VLSI Design.</t>
+  </si>
+  <si>
+    <t>Ashok Kumar R is a Assistant Professor in the Department of ECE, specializing in Wireless Communication, Wireless Networks.</t>
+  </si>
+  <si>
+    <t>Mohanapraksh K is a Assistant Professor in the Department of ECE, specializing in Embedded Systems.</t>
+  </si>
+  <si>
+    <t>Elumalai V is a Assistant Professor in the Department of ECE, specializing in Semiconductor Devices.</t>
+  </si>
+  <si>
+    <t>Mohamed Younus K is a Assistant Professor in the Department of ECE, specializing in Communication System, Wireless, Image Processing, VLSI.</t>
+  </si>
+  <si>
+    <t>Arthi B is a Assistant Professor in the Department of ECE, specializing in Microprocessor &amp; Microcontroller.</t>
+  </si>
+  <si>
+    <t>Bhuvaneshwari C is a Assistant Professor in the Department of ECE, specializing in Embedded System, Digital Image Processing.</t>
+  </si>
+  <si>
+    <t>Uthradevi K is a Assistant Professor in the Department of ECE, specializing in Digital Electronics.</t>
+  </si>
+  <si>
+    <t>Dr. Anumol Mathai is a Assistant Professor in the Department of ECE, specializing in Data Acquisition and Processing.</t>
+  </si>
+  <si>
+    <t>Jamuna V is a Assistant Professor in the Department of ECE, specializing in Image Processing.</t>
+  </si>
+  <si>
+    <t>Who is Dr. R. Rameshbabu?</t>
+  </si>
+  <si>
+    <t>Who is K. Kalaichelvi?</t>
+  </si>
+  <si>
+    <t>Who is Dr. R. Raghupathy?</t>
+  </si>
+  <si>
+    <t>Who is Mohanavel G?</t>
+  </si>
+  <si>
+    <t>Who is P. Nandhini?</t>
+  </si>
+  <si>
+    <t>Who is P. Gomathi?</t>
+  </si>
+  <si>
+    <t>Who is Lakshmi R?</t>
+  </si>
+  <si>
+    <t>Who is Rajesh Kumar S?</t>
+  </si>
+  <si>
+    <t>Who is M. Parvathi?</t>
+  </si>
+  <si>
+    <t>Who is M. Dinesh?</t>
+  </si>
+  <si>
+    <t>Who is A. Aayisha Begam?</t>
+  </si>
+  <si>
+    <t>Who is Dr. S. Vigneshwaran?</t>
+  </si>
+  <si>
+    <t>Who is Dr. P. Surendar?</t>
+  </si>
+  <si>
+    <t>Who is Maheshkumar K?</t>
+  </si>
+  <si>
+    <t>Who is Ramprakash A?</t>
+  </si>
+  <si>
+    <t>Who is Ashok Kumar R?</t>
+  </si>
+  <si>
+    <t>Who is Mohanapraksh K?</t>
+  </si>
+  <si>
+    <t>Who is Elumalai V?</t>
+  </si>
+  <si>
+    <t>Who is Mohamed Younus K?</t>
+  </si>
+  <si>
+    <t>Who is Arthi B?</t>
+  </si>
+  <si>
+    <t>Who is Bhuvaneshwari C?</t>
+  </si>
+  <si>
+    <t>Who is Uthradevi K?</t>
+  </si>
+  <si>
+    <t>Who is Dr. Anumol Mathai?</t>
+  </si>
+  <si>
+    <t>Who is Jamuna V?</t>
+  </si>
+  <si>
+    <t>who is the third and fourth year hod?</t>
+  </si>
+  <si>
+    <t>2 sem subject,2nd sem subject,second sem subject,</t>
+  </si>
+  <si>
+    <t>What are the subjects in second semester?</t>
+  </si>
+  <si>
+    <t>1 sem labs,1st sem labs,first sem labs,</t>
+  </si>
+  <si>
+    <t>Programming in C lab, Physics lab, Chemsitry lab, English lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional english-2, Computational Method, Electronics and Instrumentation Engineering, Engineering Graphics, Tamil and technology, Circuit Analysis, physics in Engineering </t>
+  </si>
+  <si>
+    <t>English lab, Engineering Graphics lab, Physics lab, Circuit analysis lab</t>
+  </si>
+  <si>
+    <t>3 sem subject,3rd sem subject,third sem subject,</t>
+  </si>
+  <si>
+    <t>What are the subjects in third semester?</t>
+  </si>
+  <si>
+    <t>Signals and System, Data Structure, Electronic Devices and Circuits, Digital Systems Design, Control System, Transforms and Partial Differential Equations</t>
+  </si>
+  <si>
+    <t>2 sem labs,2nd sem labs,second sem labs,</t>
+  </si>
+  <si>
+    <t>3 sem labs,3rd sem labs,third sem labs,</t>
+  </si>
+  <si>
+    <t>Data Structure lab, Electronic Devices and Circuits lab, Digital Systems Design lab</t>
+  </si>
+  <si>
+    <t>What are the labs for third semester?</t>
+  </si>
+  <si>
+    <t>What are the labs for first semester?</t>
+  </si>
+  <si>
+    <t>What are the labs for second semester?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeeva S, III year ECE- B </t>
+  </si>
+  <si>
+    <t>Dr.C.Vennila M.E., Ph.D is the principal of V.S.B Engineering College</t>
+  </si>
+  <si>
+    <t>Dr.P.S.Gomathi M.E., Ph.D (Professor), Exam cell Incharge.</t>
+  </si>
+  <si>
+    <t>senior student hod, head of the department third and fourth year, hod third and fourth year, third year and fourth year hod, 3rd and 4th year hod, 3rd &amp; 4th year hod</t>
+  </si>
+  <si>
+    <t>ECE hod name, Head of ECE, HOD of Electronics, ece hod, hod ece</t>
+  </si>
+  <si>
+    <t>Dr.Anand Kumar M.E.,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +439,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Inter"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -157,6 +498,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,10 +536,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,20 +801,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="108" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.7109375" customWidth="1"/>
     <col min="3" max="3" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,222 +825,478 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="30">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="3" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="180">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="30">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="60">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="30">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="42.75">
+      <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="C9" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="60">
+      <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="210">
+      <c r="A11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="257.25">
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45">
+      <c r="A13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30">
+      <c r="A14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45">
+      <c r="A15" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30">
+      <c r="A16" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45">
+      <c r="A17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30">
+      <c r="A18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45">
+      <c r="A19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60">
+      <c r="A20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45">
+      <c r="A21" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45">
+      <c r="A22" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45">
+      <c r="A23" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45">
+      <c r="A24" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="60">
+      <c r="A25" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45">
+      <c r="A26" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45">
+      <c r="A27" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45">
+      <c r="A28" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30">
+      <c r="A29" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45">
+      <c r="A30" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45">
+      <c r="A31" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="45">
+      <c r="A32" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="60">
+      <c r="A33" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="45">
+      <c r="A34" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="45">
+      <c r="A35" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="45">
+      <c r="A36" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="45">
+      <c r="A37" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="45">
+      <c r="A38" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="60">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="60">
+      <c r="A40" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30">
+      <c r="A41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30">
+      <c r="A42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="60">
+      <c r="A43" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30">
+      <c r="A44" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/chat_data.xlsx
+++ b/chat_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cebb97fb30c35e3a/Desktop/ECE Chatbot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="13_ncr:1_{010D68DE-4F6D-46FA-80C3-8F44FC4A5238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DC54A65-DA08-405D-8490-BF41EE15E4D7}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:1_{010D68DE-4F6D-46FA-80C3-8F44FC4A5238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED8BBDE3-5BF9-43DC-8FE0-10CE18B0FF57}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,12 +96,6 @@
     <t>Who is the principal?</t>
   </si>
   <si>
-    <t>Who is the exam cell incharge?</t>
-  </si>
-  <si>
-    <t>examination coordinator,exam center head,before 2024 ece department senior hod,exam cell incharge,exam cell coordinator,exam cell hed,exam organizer</t>
-  </si>
-  <si>
     <t>Who is the event coordinator?</t>
   </si>
   <si>
@@ -357,9 +351,6 @@
     <t>who is the third and fourth year hod?</t>
   </si>
   <si>
-    <t>2 sem subject,2nd sem subject,second sem subject,</t>
-  </si>
-  <si>
     <t>What are the subjects in second semester?</t>
   </si>
   <si>
@@ -375,9 +366,6 @@
     <t>English lab, Engineering Graphics lab, Physics lab, Circuit analysis lab</t>
   </si>
   <si>
-    <t>3 sem subject,3rd sem subject,third sem subject,</t>
-  </si>
-  <si>
     <t>What are the subjects in third semester?</t>
   </si>
   <si>
@@ -387,12 +375,6 @@
     <t>2 sem labs,2nd sem labs,second sem labs,</t>
   </si>
   <si>
-    <t>3 sem labs,3rd sem labs,third sem labs,</t>
-  </si>
-  <si>
-    <t>Data Structure lab, Electronic Devices and Circuits lab, Digital Systems Design lab</t>
-  </si>
-  <si>
     <t>What are the labs for third semester?</t>
   </si>
   <si>
@@ -418,6 +400,24 @@
   </si>
   <si>
     <t>Dr.Anand Kumar M.E.,</t>
+  </si>
+  <si>
+    <t>examination coordinator,exam center head,before 2024 ece department senior hod,exam cell incharge,exam cell coordinator,exam cell head,exam organizer</t>
+  </si>
+  <si>
+    <t>Who is the head of the exam cell?</t>
+  </si>
+  <si>
+    <t>3 sem labs,3rd sem labs,third sem labs,sem lab, labs, lab</t>
+  </si>
+  <si>
+    <t>3 sem subject,3rd sem subject,third sem subject,sem subjects, sem sub</t>
+  </si>
+  <si>
+    <t>2 sem subject,2nd sem subject,second sem subject,sem subjects,sem sub, sem</t>
+  </si>
+  <si>
+    <t>Electronic Devices and Circuits, Data Structure and Digital Systems Design</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -520,6 +520,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="108" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -830,7 +836,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -855,7 +861,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="180">
@@ -903,399 +909,399 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="42.75">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="60">
+      <c r="A10" s="17" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="60">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="210">
+      <c r="A11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="210">
-      <c r="A11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="257.25">
       <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="C12" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45">
       <c r="A13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="C13" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30">
       <c r="A14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="45">
       <c r="A15" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30">
       <c r="A16" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="45">
       <c r="A17" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30">
       <c r="A18" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="45">
       <c r="A19" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60">
       <c r="A20" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="45">
       <c r="A21" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="45">
       <c r="A22" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45">
       <c r="A23" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="45">
       <c r="A24" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="60">
       <c r="A25" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="45">
       <c r="A26" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="45">
       <c r="A27" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="45">
       <c r="A28" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30">
       <c r="A29" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="45">
       <c r="A30" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="45">
       <c r="A31" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="45">
       <c r="A32" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="60">
       <c r="A33" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="45">
       <c r="A34" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="45">
       <c r="A35" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="45">
       <c r="A36" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="45">
       <c r="A37" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="45">
       <c r="A38" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="60">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="60">
       <c r="A40" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="60">
       <c r="A43" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30">
       <c r="A44" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
